--- a/Covid_29019.xlsx
+++ b/Covid_29019.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haile/Documents/GitHub/R_UF/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookpro5530/Documents/GitHub/R_UF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A75F42-702A-CA44-A89E-5D1A47A08BCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD76EC2F-3B8C-F94C-8D00-36E0EBE8D870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Covid_29019" sheetId="1" r:id="rId1"/>
@@ -900,8 +900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Covid_29019.xlsx
+++ b/Covid_29019.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookpro5530/Documents/GitHub/R_UF/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haile/Documents/GitHub/R_UF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD76EC2F-3B8C-F94C-8D00-36E0EBE8D870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B464111-A4F1-B243-B968-D49697DAE0C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -901,7 +901,7 @@
   <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -925,7 +925,7 @@
         <v>44018</v>
       </c>
       <c r="B2" s="4">
-        <v>41.1</v>
+        <v>131.64267374673599</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -933,7 +933,7 @@
         <v>44019</v>
       </c>
       <c r="B3" s="4">
-        <v>222</v>
+        <v>128.454034387923</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -941,7 +941,7 @@
         <v>44020</v>
       </c>
       <c r="B4" s="4">
-        <v>98.2</v>
+        <v>125.096646822531</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -949,7 +949,7 @@
         <v>44021</v>
       </c>
       <c r="B5" s="4">
-        <v>89.2</v>
+        <v>121.33688041264</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -957,7 +957,7 @@
         <v>44022</v>
       </c>
       <c r="B6" s="4">
-        <v>297</v>
+        <v>117.00681003496101</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -965,7 +965,7 @@
         <v>44023</v>
       </c>
       <c r="B7" s="4">
-        <v>70</v>
+        <v>112.153258516973</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -973,7 +973,7 @@
         <v>44024</v>
       </c>
       <c r="B8" s="4">
-        <v>32.5</v>
+        <v>107.065442872519</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -981,7 +981,7 @@
         <v>44025</v>
       </c>
       <c r="B9" s="4">
-        <v>96.9</v>
+        <v>102.152524095133</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -989,7 +989,7 @@
         <v>44026</v>
       </c>
       <c r="B10" s="4">
-        <v>88.3</v>
+        <v>97.786185486127195</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -997,7 +997,7 @@
         <v>44027</v>
       </c>
       <c r="B11" s="4">
-        <v>11.9</v>
+        <v>94.202576947682687</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -1005,7 +1005,7 @@
         <v>44028</v>
       </c>
       <c r="B12" s="4">
-        <v>137</v>
+        <v>91.485823321185393</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -1013,7 +1013,7 @@
         <v>44029</v>
       </c>
       <c r="B13" s="4">
-        <v>181</v>
+        <v>89.629663643573807</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -1021,7 +1021,7 @@
         <v>44030</v>
       </c>
       <c r="B14" s="4">
-        <v>161</v>
+        <v>88.640139467865595</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -1029,7 +1029,7 @@
         <v>44031</v>
       </c>
       <c r="B15" s="4">
-        <v>25.4</v>
+        <v>88.603113600342297</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -1037,7 +1037,7 @@
         <v>44032</v>
       </c>
       <c r="B16" s="4">
-        <v>14.4</v>
+        <v>89.655236839271495</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -1045,7 +1045,7 @@
         <v>44033</v>
       </c>
       <c r="B17" s="4">
-        <v>22.1</v>
+        <v>91.828313861992697</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -1053,7 +1053,7 @@
         <v>44034</v>
       </c>
       <c r="B18" s="4">
-        <v>49.6</v>
+        <v>94.764983945775498</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -1061,7 +1061,7 @@
         <v>44035</v>
       </c>
       <c r="B19" s="4">
-        <v>160</v>
+        <v>97.394972545802801</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -1069,7 +1069,7 @@
         <v>44036</v>
       </c>
       <c r="B20" s="4">
-        <v>94.8</v>
+        <v>97.975716335033198</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -1077,7 +1077,7 @@
         <v>44037</v>
       </c>
       <c r="B21" s="4">
-        <v>185</v>
+        <v>95.144807882635405</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -1085,7 +1085,7 @@
         <v>44038</v>
       </c>
       <c r="B22" s="4">
-        <v>233</v>
+        <v>89.203874383132202</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -1093,7 +1093,7 @@
         <v>44039</v>
       </c>
       <c r="B23" s="4">
-        <v>37.700000000000003</v>
+        <v>80.795519129238698</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -1101,7 +1101,7 @@
         <v>44040</v>
       </c>
       <c r="B24" s="4">
-        <v>19.899999999999999</v>
+        <v>70.782603574305213</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -1109,7 +1109,7 @@
         <v>44041</v>
       </c>
       <c r="B25" s="4">
-        <v>10.9</v>
+        <v>60.148172204318904</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -1117,7 +1117,7 @@
         <v>44042</v>
       </c>
       <c r="B26" s="4">
-        <v>21.6</v>
+        <v>49.720725217302601</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -1125,7 +1125,7 @@
         <v>44043</v>
       </c>
       <c r="B27" s="4">
-        <v>32.200000000000003</v>
+        <v>40.086191123644703</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -1133,7 +1133,7 @@
         <v>44044</v>
       </c>
       <c r="B28" s="4">
-        <v>26.7</v>
+        <v>31.627655181864103</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -1141,7 +1141,7 @@
         <v>44045</v>
       </c>
       <c r="B29" s="4">
-        <v>29.9</v>
+        <v>24.591927560172902</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -1149,7 +1149,7 @@
         <v>44046</v>
       </c>
       <c r="B30" s="4">
-        <v>36.299999999999997</v>
+        <v>19.1209315596296</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -1157,7 +1157,7 @@
         <v>44047</v>
       </c>
       <c r="B31" s="4">
-        <v>21.2</v>
+        <v>15.2405402197027</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -1165,7 +1165,7 @@
         <v>44048</v>
       </c>
       <c r="B32" s="4">
-        <v>13.9</v>
+        <v>12.840968522461699</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -1173,7 +1173,7 @@
         <v>44049</v>
       </c>
       <c r="B33" s="4">
-        <v>12.2</v>
+        <v>11.7662312187081</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -1181,7 +1181,7 @@
         <v>44050</v>
       </c>
       <c r="B34" s="4">
-        <v>0.9352280058000001</v>
+        <v>11.978239548136999</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -1189,7 +1189,7 @@
         <v>44051</v>
       </c>
       <c r="B35" s="4">
-        <v>6.8697109900000006</v>
+        <v>13.168706984986899</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -1197,7 +1197,7 @@
         <v>44052</v>
       </c>
       <c r="B36" s="4">
-        <v>7.3975532070000005</v>
+        <v>14.8564399557225</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -1205,7 +1205,7 @@
         <v>44053</v>
       </c>
       <c r="B37" s="4">
-        <v>29.8</v>
+        <v>16.669817424423101</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -1213,7 +1213,7 @@
         <v>44054</v>
       </c>
       <c r="B38" s="4">
-        <v>9.817086389</v>
+        <v>18.427627046617602</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -1221,7 +1221,7 @@
         <v>44055</v>
       </c>
       <c r="B39" s="4">
-        <v>23.6</v>
+        <v>20.0822084022845</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -1229,7 +1229,7 @@
         <v>44056</v>
       </c>
       <c r="B40" s="4">
-        <v>20.2</v>
+        <v>21.6383941492277</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -1237,7 +1237,7 @@
         <v>44057</v>
       </c>
       <c r="B41" s="4">
-        <v>38.200000000000003</v>
+        <v>23.096466201597998</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -1245,7 +1245,7 @@
         <v>44058</v>
       </c>
       <c r="B42" s="4">
-        <v>16.8</v>
+        <v>24.4336112472343</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -1253,7 +1253,7 @@
         <v>44059</v>
       </c>
       <c r="B43" s="4">
-        <v>8.4448454179999999</v>
+        <v>25.6071853954099</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -1261,7 +1261,7 @@
         <v>44060</v>
       </c>
       <c r="B44" s="4">
-        <v>4.9690581330000008</v>
+        <v>26.551852912533398</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -1269,7 +1269,7 @@
         <v>44061</v>
       </c>
       <c r="B45" s="4">
-        <v>11.9</v>
+        <v>27.178893917530001</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -1277,7 +1277,7 @@
         <v>44062</v>
       </c>
       <c r="B46" s="4">
-        <v>111</v>
+        <v>27.396806521213698</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -1285,7 +1285,7 @@
         <v>44063</v>
       </c>
       <c r="B47" s="4">
-        <v>51.3</v>
+        <v>27.159675245123598</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -1293,7 +1293,7 @@
         <v>44064</v>
       </c>
       <c r="B48" s="4">
-        <v>25.1</v>
+        <v>26.519911080463398</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -1301,7 +1301,7 @@
         <v>44065</v>
       </c>
       <c r="B49" s="4">
-        <v>13</v>
+        <v>25.634527698447101</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -1309,7 +1309,7 @@
         <v>44066</v>
       </c>
       <c r="B50" s="4">
-        <v>8.6045361800000002</v>
+        <v>24.703969485652802</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -1317,7 +1317,7 @@
         <v>44067</v>
       </c>
       <c r="B51" s="4">
-        <v>6.0795107399999999</v>
+        <v>23.868051185004202</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_29019.xlsx
+++ b/Covid_29019.xlsx
@@ -8,14 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haile/Documents/GitHub/R_UF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B464111-A4F1-B243-B968-D49697DAE0C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9099695-8706-A848-A801-861CE639CC13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Covid_29019" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -898,10 +909,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B146"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
+      <selection activeCell="A147" sqref="A147:B147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -925,7 +936,7 @@
         <v>44018</v>
       </c>
       <c r="B2" s="4">
-        <v>131.64267374673599</v>
+        <v>91.727695355504395</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -933,7 +944,7 @@
         <v>44019</v>
       </c>
       <c r="B3" s="4">
-        <v>128.454034387923</v>
+        <v>94.321313072262996</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -941,7 +952,7 @@
         <v>44020</v>
       </c>
       <c r="B4" s="4">
-        <v>125.096646822531</v>
+        <v>96.957041314746505</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -949,7 +960,7 @@
         <v>44021</v>
       </c>
       <c r="B5" s="4">
-        <v>121.33688041264</v>
+        <v>99.662776180664409</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -957,7 +968,7 @@
         <v>44022</v>
       </c>
       <c r="B6" s="4">
-        <v>117.00681003496101</v>
+        <v>102.437479463812</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -965,7 +976,7 @@
         <v>44023</v>
       </c>
       <c r="B7" s="4">
-        <v>112.153258516973</v>
+        <v>105.26301278612401</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -973,7 +984,7 @@
         <v>44024</v>
       </c>
       <c r="B8" s="4">
-        <v>107.065442872519</v>
+        <v>108.113209456959</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -981,7 +992,7 @@
         <v>44025</v>
       </c>
       <c r="B9" s="4">
-        <v>102.152524095133</v>
+        <v>110.960408220895</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -989,7 +1000,7 @@
         <v>44026</v>
       </c>
       <c r="B10" s="4">
-        <v>97.786185486127195</v>
+        <v>113.779648733683</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -997,7 +1008,7 @@
         <v>44027</v>
       </c>
       <c r="B11" s="4">
-        <v>94.202576947682687</v>
+        <v>116.550900360844</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -1005,7 +1016,7 @@
         <v>44028</v>
       </c>
       <c r="B12" s="4">
-        <v>91.485823321185393</v>
+        <v>119.26580107242999</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -1013,7 +1024,7 @@
         <v>44029</v>
       </c>
       <c r="B13" s="4">
-        <v>89.629663643573807</v>
+        <v>121.974472884355</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -1021,7 +1032,7 @@
         <v>44030</v>
       </c>
       <c r="B14" s="4">
-        <v>88.640139467865595</v>
+        <v>124.717833667843</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -1029,7 +1040,7 @@
         <v>44031</v>
       </c>
       <c r="B15" s="4">
-        <v>88.603113600342297</v>
+        <v>127.49207484887999</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -1037,7 +1048,7 @@
         <v>44032</v>
       </c>
       <c r="B16" s="4">
-        <v>89.655236839271495</v>
+        <v>130.26918875791299</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -1045,7 +1056,7 @@
         <v>44033</v>
       </c>
       <c r="B17" s="4">
-        <v>91.828313861992697</v>
+        <v>133.01186730887801</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -1053,7 +1064,7 @@
         <v>44034</v>
       </c>
       <c r="B18" s="4">
-        <v>94.764983945775498</v>
+        <v>135.68309118630199</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -1061,7 +1072,7 @@
         <v>44035</v>
       </c>
       <c r="B19" s="4">
-        <v>97.394972545802801</v>
+        <v>138.251537395393</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -1069,7 +1080,7 @@
         <v>44036</v>
       </c>
       <c r="B20" s="4">
-        <v>97.975716335033198</v>
+        <v>140.693938780048</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -1077,7 +1088,7 @@
         <v>44037</v>
       </c>
       <c r="B21" s="4">
-        <v>95.144807882635405</v>
+        <v>142.995438630097</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -1085,7 +1096,7 @@
         <v>44038</v>
       </c>
       <c r="B22" s="4">
-        <v>89.203874383132202</v>
+        <v>145.17636149693701</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -1093,7 +1104,7 @@
         <v>44039</v>
       </c>
       <c r="B23" s="4">
-        <v>80.795519129238698</v>
+        <v>147.336957223686</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -1101,7 +1112,7 @@
         <v>44040</v>
       </c>
       <c r="B24" s="4">
-        <v>70.782603574305213</v>
+        <v>149.52784785575901</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -1109,7 +1120,7 @@
         <v>44041</v>
       </c>
       <c r="B25" s="4">
-        <v>60.148172204318904</v>
+        <v>151.74526705276199</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -1117,7 +1128,7 @@
         <v>44042</v>
       </c>
       <c r="B26" s="4">
-        <v>49.720725217302601</v>
+        <v>153.95559122545401</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -1125,7 +1136,7 @@
         <v>44043</v>
       </c>
       <c r="B27" s="4">
-        <v>40.086191123644703</v>
+        <v>156.11225995824302</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -1133,7 +1144,7 @@
         <v>44044</v>
       </c>
       <c r="B28" s="4">
-        <v>31.627655181864103</v>
+        <v>158.16678510124999</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -1141,7 +1152,7 @@
         <v>44045</v>
       </c>
       <c r="B29" s="4">
-        <v>24.591927560172902</v>
+        <v>160.075228734939</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -1149,7 +1160,7 @@
         <v>44046</v>
       </c>
       <c r="B30" s="4">
-        <v>19.1209315596296</v>
+        <v>161.80137820011601</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -1157,7 +1168,7 @@
         <v>44047</v>
       </c>
       <c r="B31" s="4">
-        <v>15.2405402197027</v>
+        <v>163.31768215316799</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -1165,7 +1176,7 @@
         <v>44048</v>
       </c>
       <c r="B32" s="4">
-        <v>12.840968522461699</v>
+        <v>164.60173517520897</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -1173,7 +1184,7 @@
         <v>44049</v>
       </c>
       <c r="B33" s="4">
-        <v>11.7662312187081</v>
+        <v>165.62393645117501</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -1181,7 +1192,7 @@
         <v>44050</v>
       </c>
       <c r="B34" s="4">
-        <v>11.978239548136999</v>
+        <v>166.35503181979999</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -1189,7 +1200,7 @@
         <v>44051</v>
       </c>
       <c r="B35" s="4">
-        <v>13.168706984986899</v>
+        <v>166.77217747089699</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -1197,7 +1208,7 @@
         <v>44052</v>
       </c>
       <c r="B36" s="4">
-        <v>14.8564399557225</v>
+        <v>166.86017358048701</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -1205,7 +1216,7 @@
         <v>44053</v>
       </c>
       <c r="B37" s="4">
-        <v>16.669817424423101</v>
+        <v>166.610846792068</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -1213,7 +1224,7 @@
         <v>44054</v>
       </c>
       <c r="B38" s="4">
-        <v>18.427627046617602</v>
+        <v>166.021345054379</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -1221,7 +1232,7 @@
         <v>44055</v>
       </c>
       <c r="B39" s="4">
-        <v>20.0822084022845</v>
+        <v>165.091965604732</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -1229,7 +1240,7 @@
         <v>44056</v>
       </c>
       <c r="B40" s="4">
-        <v>21.6383941492277</v>
+        <v>163.82397467232099</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -1237,7 +1248,7 @@
         <v>44057</v>
       </c>
       <c r="B41" s="4">
-        <v>23.096466201597998</v>
+        <v>162.211266862456</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -1245,7 +1256,7 @@
         <v>44058</v>
       </c>
       <c r="B42" s="4">
-        <v>24.4336112472343</v>
+        <v>160.18384688759198</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -1253,7 +1264,7 @@
         <v>44059</v>
       </c>
       <c r="B43" s="4">
-        <v>25.6071853954099</v>
+        <v>157.66669611671799</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -1261,7 +1272,7 @@
         <v>44060</v>
       </c>
       <c r="B44" s="4">
-        <v>26.551852912533398</v>
+        <v>154.62394715271898</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -1269,7 +1280,7 @@
         <v>44061</v>
       </c>
       <c r="B45" s="4">
-        <v>27.178893917530001</v>
+        <v>151.04999582807301</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -1277,7 +1288,7 @@
         <v>44062</v>
       </c>
       <c r="B46" s="4">
-        <v>27.396806521213698</v>
+        <v>146.96202275823501</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -1285,7 +1296,7 @@
         <v>44063</v>
       </c>
       <c r="B47" s="4">
-        <v>27.159675245123598</v>
+        <v>142.39447558590601</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -1293,7 +1304,7 @@
         <v>44064</v>
       </c>
       <c r="B48" s="4">
-        <v>26.519911080463398</v>
+        <v>137.39564177081502</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -1301,7 +1312,7 @@
         <v>44065</v>
       </c>
       <c r="B49" s="4">
-        <v>25.634527698447101</v>
+        <v>132.02629412744699</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -1309,7 +1320,7 @@
         <v>44066</v>
       </c>
       <c r="B50" s="4">
-        <v>24.703969485652802</v>
+        <v>126.360139141863</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -1317,7 +1328,767 @@
         <v>44067</v>
       </c>
       <c r="B51" s="4">
-        <v>23.868051185004202</v>
+        <v>120.473976768925</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>44068</v>
+      </c>
+      <c r="B52" s="4">
+        <v>114.433490162883</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>44069</v>
+      </c>
+      <c r="B53" s="4">
+        <v>108.35201299616</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>44070</v>
+      </c>
+      <c r="B54" s="4">
+        <v>102.388126311839</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>44071</v>
+      </c>
+      <c r="B55" s="4">
+        <v>96.7223787350771</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>44072</v>
+      </c>
+      <c r="B56" s="4">
+        <v>91.529263783141005</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>44073</v>
+      </c>
+      <c r="B57" s="4">
+        <v>86.946051147240695</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>44074</v>
+      </c>
+      <c r="B58" s="4">
+        <v>83.041093239215698</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>44075</v>
+      </c>
+      <c r="B59" s="4">
+        <v>79.784021752036011</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>44076</v>
+      </c>
+      <c r="B60" s="4">
+        <v>77.018147478310496</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>44077</v>
+      </c>
+      <c r="B61" s="4">
+        <v>74.49517956168809</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>44078</v>
+      </c>
+      <c r="B62" s="4">
+        <v>72.122559468328404</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>44079</v>
+      </c>
+      <c r="B63" s="4">
+        <v>69.898280415162802</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>44080</v>
+      </c>
+      <c r="B64" s="4">
+        <v>67.849061956753104</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>44081</v>
+      </c>
+      <c r="B65" s="4">
+        <v>66.015170797655898</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>44082</v>
+      </c>
+      <c r="B66" s="4">
+        <v>64.438510930124295</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <v>44083</v>
+      </c>
+      <c r="B67" s="4">
+        <v>63.153454198439</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>44084</v>
+      </c>
+      <c r="B68" s="4">
+        <v>62.180246465592397</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <v>44085</v>
+      </c>
+      <c r="B69" s="4">
+        <v>61.521004555916598</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <v>44086</v>
+      </c>
+      <c r="B70" s="4">
+        <v>61.151575005833699</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <v>44087</v>
+      </c>
+      <c r="B71" s="4">
+        <v>60.971595940280302</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <v>44088</v>
+      </c>
+      <c r="B72" s="4">
+        <v>60.895115461567499</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <v>44089</v>
+      </c>
+      <c r="B73" s="4">
+        <v>60.8801470167313</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
+        <v>44090</v>
+      </c>
+      <c r="B74" s="4">
+        <v>60.906170283837803</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
+        <v>44091</v>
+      </c>
+      <c r="B75" s="4">
+        <v>60.9630239183047</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
+        <v>44092</v>
+      </c>
+      <c r="B76" s="4">
+        <v>61.045835539468001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
+        <v>44093</v>
+      </c>
+      <c r="B77" s="4">
+        <v>61.155778372848395</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
+        <v>44094</v>
+      </c>
+      <c r="B78" s="4">
+        <v>61.306691319565402</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="1">
+        <v>44095</v>
+      </c>
+      <c r="B79" s="4">
+        <v>61.537852981253899</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="1">
+        <v>44096</v>
+      </c>
+      <c r="B80" s="4">
+        <v>61.943786334800699</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="1">
+        <v>44097</v>
+      </c>
+      <c r="B81" s="4">
+        <v>62.650444915515301</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="1">
+        <v>44098</v>
+      </c>
+      <c r="B82" s="4">
+        <v>63.692940133711602</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="1">
+        <v>44099</v>
+      </c>
+      <c r="B83" s="4">
+        <v>65.0684254051762</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="1">
+        <v>44100</v>
+      </c>
+      <c r="B84" s="4">
+        <v>66.748798950344295</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" s="1">
+        <v>44101</v>
+      </c>
+      <c r="B85" s="4">
+        <v>68.687903084478194</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" s="1">
+        <v>44102</v>
+      </c>
+      <c r="B86" s="4">
+        <v>70.830744919099303</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" s="1">
+        <v>44103</v>
+      </c>
+      <c r="B87" s="4">
+        <v>73.124802590958893</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B88" s="4">
+        <v>75.533629813219804</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" s="1">
+        <v>44105</v>
+      </c>
+      <c r="B89" s="4">
+        <v>78.0533280774806</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" s="1">
+        <v>44106</v>
+      </c>
+      <c r="B90" s="4">
+        <v>80.793021788054787</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" s="1">
+        <v>44107</v>
+      </c>
+      <c r="B91" s="4">
+        <v>84.066001309144596</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" s="1">
+        <v>44108</v>
+      </c>
+      <c r="B92" s="4">
+        <v>88.052219466095707</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" s="1">
+        <v>44109</v>
+      </c>
+      <c r="B93" s="4">
+        <v>92.759829221033598</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" s="1">
+        <v>44110</v>
+      </c>
+      <c r="B94" s="4">
+        <v>98.071271492417097</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" s="1">
+        <v>44111</v>
+      </c>
+      <c r="B95" s="4">
+        <v>103.78885253439</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" s="1">
+        <v>44112</v>
+      </c>
+      <c r="B96" s="4">
+        <v>109.679117614953</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" s="1">
+        <v>44113</v>
+      </c>
+      <c r="B97" s="4">
+        <v>115.512863952713</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" s="1">
+        <v>44114</v>
+      </c>
+      <c r="B98" s="4">
+        <v>121.09775384343099</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" s="1">
+        <v>44115</v>
+      </c>
+      <c r="B99" s="4">
+        <v>126.302066244017</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" s="1">
+        <v>44116</v>
+      </c>
+      <c r="B100" s="4">
+        <v>131.054746139771</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" s="1">
+        <v>44117</v>
+      </c>
+      <c r="B101" s="4">
+        <v>135.283130036431</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" s="1">
+        <v>44118</v>
+      </c>
+      <c r="B102" s="4">
+        <v>138.925555683829</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" s="1">
+        <v>44119</v>
+      </c>
+      <c r="B103" s="4">
+        <v>141.939506805039</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" s="1">
+        <v>44120</v>
+      </c>
+      <c r="B104" s="4">
+        <v>144.29927705225302</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" s="1">
+        <v>44121</v>
+      </c>
+      <c r="B105" s="4">
+        <v>145.99546361564498</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" s="1">
+        <v>44122</v>
+      </c>
+      <c r="B106" s="4">
+        <v>147.036313205374</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" s="1">
+        <v>44123</v>
+      </c>
+      <c r="B107" s="4">
+        <v>147.450645958309</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" s="1">
+        <v>44124</v>
+      </c>
+      <c r="B108" s="4">
+        <v>147.29191343522601</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" s="1">
+        <v>44125</v>
+      </c>
+      <c r="B109" s="4">
+        <v>146.64250434452001</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" s="1">
+        <v>44126</v>
+      </c>
+      <c r="B110" s="4">
+        <v>145.574743533587</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" s="1">
+        <v>44127</v>
+      </c>
+      <c r="B111" s="4">
+        <v>144.106461553613</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" s="1">
+        <v>44128</v>
+      </c>
+      <c r="B112" s="4">
+        <v>142.249569055781</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" s="1">
+        <v>44129</v>
+      </c>
+      <c r="B113" s="4">
+        <v>140.01710956097901</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" s="1">
+        <v>44130</v>
+      </c>
+      <c r="B114" s="4">
+        <v>137.42479404096599</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" s="1">
+        <v>44131</v>
+      </c>
+      <c r="B115" s="4">
+        <v>134.49173976549</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" s="1">
+        <v>44132</v>
+      </c>
+      <c r="B116" s="4">
+        <v>131.239670387058</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" s="1">
+        <v>44133</v>
+      </c>
+      <c r="B117" s="4">
+        <v>127.68962880721701</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" s="1">
+        <v>44134</v>
+      </c>
+      <c r="B118" s="4">
+        <v>123.85501882859799</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" s="1">
+        <v>44135</v>
+      </c>
+      <c r="B119" s="4">
+        <v>119.737506020808</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" s="1">
+        <v>44136</v>
+      </c>
+      <c r="B120" s="4">
+        <v>115.353935734006</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" s="1">
+        <v>44137</v>
+      </c>
+      <c r="B121" s="4">
+        <v>110.737979156542</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" s="1">
+        <v>44138</v>
+      </c>
+      <c r="B122" s="4">
+        <v>105.93697675831801</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B123" s="4">
+        <v>101.010958590546</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" s="1">
+        <v>44140</v>
+      </c>
+      <c r="B124" s="4">
+        <v>96.028683998643501</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" s="1">
+        <v>44141</v>
+      </c>
+      <c r="B125" s="4">
+        <v>91.059246143506201</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" s="1">
+        <v>44142</v>
+      </c>
+      <c r="B126" s="4">
+        <v>86.157571981583601</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" s="1">
+        <v>44143</v>
+      </c>
+      <c r="B127" s="4">
+        <v>81.341975028208196</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" s="1">
+        <v>44144</v>
+      </c>
+      <c r="B128" s="4">
+        <v>76.56156432336401</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" s="1">
+        <v>44145</v>
+      </c>
+      <c r="B129" s="4">
+        <v>71.703484682887904</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" s="1">
+        <v>44146</v>
+      </c>
+      <c r="B130" s="4">
+        <v>66.767659203384397</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" s="1">
+        <v>44147</v>
+      </c>
+      <c r="B131" s="4">
+        <v>61.804381877621601</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" s="1">
+        <v>44148</v>
+      </c>
+      <c r="B132" s="4">
+        <v>56.876297553010097</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" s="1">
+        <v>44149</v>
+      </c>
+      <c r="B133" s="4">
+        <v>52.055273918884204</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134" s="1">
+        <v>44150</v>
+      </c>
+      <c r="B134" s="4">
+        <v>47.415509554320998</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135" s="1">
+        <v>44151</v>
+      </c>
+      <c r="B135" s="4">
+        <v>43.021584999501201</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136" s="1">
+        <v>44152</v>
+      </c>
+      <c r="B136" s="4">
+        <v>38.910348302118301</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137" s="1">
+        <v>44153</v>
+      </c>
+      <c r="B137" s="4">
+        <v>35.065862330631802</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138" s="1">
+        <v>44154</v>
+      </c>
+      <c r="B138" s="4">
+        <v>31.3882079666623</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139" s="1">
+        <v>44155</v>
+      </c>
+      <c r="B139" s="4">
+        <v>27.760552035138499</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140" s="1">
+        <v>44156</v>
+      </c>
+      <c r="B140" s="4">
+        <v>24.159590811270899</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141" s="1">
+        <v>44157</v>
+      </c>
+      <c r="B141" s="4">
+        <v>20.5684694372944</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142" s="1">
+        <v>44158</v>
+      </c>
+      <c r="B142" s="4">
+        <v>16.966944840304699</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143" s="1">
+        <v>44159</v>
+      </c>
+      <c r="B143" s="4">
+        <v>13.3332933726735</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144" s="1">
+        <v>44160</v>
+      </c>
+      <c r="B144" s="4">
+        <v>9.647700907455949</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145" s="1">
+        <v>44161</v>
+      </c>
+      <c r="B145" s="4">
+        <v>5.8973626292063397</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146" s="1">
+        <v>44162</v>
+      </c>
+      <c r="B146" s="4">
+        <v>2.08337928740435</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_29019.xlsx
+++ b/Covid_29019.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haile/Documents/GitHub/R_UF/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookpro5530/Documents/GitHub/R_UF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9099695-8706-A848-A801-861CE639CC13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FAF4626-24F8-354A-9E77-845F49C87B98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -909,10 +909,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B146"/>
+  <dimension ref="A1:B147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
-      <selection activeCell="A147" sqref="A147:B147"/>
+    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
+      <selection activeCell="B153" sqref="B153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -935,1160 +935,1168 @@
       <c r="A2" s="1">
         <v>44018</v>
       </c>
-      <c r="B2" s="4">
-        <v>91.727695355504395</v>
+      <c r="B2">
+        <v>24.624359253494202</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>44019</v>
       </c>
-      <c r="B3" s="4">
-        <v>94.321313072262996</v>
+      <c r="B3">
+        <v>27.189868545400401</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>44020</v>
       </c>
-      <c r="B4" s="4">
-        <v>96.957041314746505</v>
+      <c r="B4">
+        <v>29.747214643028698</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>44021</v>
       </c>
-      <c r="B5" s="4">
-        <v>99.662776180664409</v>
+      <c r="B5">
+        <v>32.287628454676202</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>44022</v>
       </c>
-      <c r="B6" s="4">
-        <v>102.437479463812</v>
+      <c r="B6">
+        <v>34.814145773778797</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>44023</v>
       </c>
-      <c r="B7" s="4">
-        <v>105.26301278612401</v>
+      <c r="B7">
+        <v>37.329183746397298</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>44024</v>
       </c>
-      <c r="B8" s="4">
-        <v>108.113209456959</v>
+      <c r="B8">
+        <v>39.838222424194299</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>44025</v>
       </c>
-      <c r="B9" s="4">
-        <v>110.960408220895</v>
+      <c r="B9">
+        <v>42.35503104867</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>44026</v>
       </c>
-      <c r="B10" s="4">
-        <v>113.779648733683</v>
+      <c r="B10">
+        <v>44.890466660991997</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>44027</v>
       </c>
-      <c r="B11" s="4">
-        <v>116.550900360844</v>
+      <c r="B11">
+        <v>47.459776991543499</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>44028</v>
       </c>
-      <c r="B12" s="4">
-        <v>119.26580107242999</v>
+      <c r="B12">
+        <v>50.078706654257402</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>44029</v>
       </c>
-      <c r="B13" s="4">
-        <v>121.974472884355</v>
+      <c r="B13">
+        <v>52.763847806026298</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>44030</v>
       </c>
-      <c r="B14" s="4">
-        <v>124.717833667843</v>
+      <c r="B14">
+        <v>55.532315785785997</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>44031</v>
       </c>
-      <c r="B15" s="4">
-        <v>127.49207484887999</v>
+      <c r="B15">
+        <v>58.398532856553103</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>44032</v>
       </c>
-      <c r="B16" s="4">
-        <v>130.26918875791299</v>
+      <c r="B16">
+        <v>61.372898860163502</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>44033</v>
       </c>
-      <c r="B17" s="4">
-        <v>133.01186730887801</v>
+      <c r="B17">
+        <v>64.467172779547795</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>44034</v>
       </c>
-      <c r="B18" s="4">
-        <v>135.68309118630199</v>
+      <c r="B18">
+        <v>67.687747978934695</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>44035</v>
       </c>
-      <c r="B19" s="4">
-        <v>138.251537395393</v>
+      <c r="B19">
+        <v>71.042942556086999</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>44036</v>
       </c>
-      <c r="B20" s="4">
-        <v>140.693938780048</v>
+      <c r="B20">
+        <v>74.529517900811797</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>44037</v>
       </c>
-      <c r="B21" s="4">
-        <v>142.995438630097</v>
+      <c r="B21">
+        <v>78.145243458643193</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>44038</v>
       </c>
-      <c r="B22" s="4">
-        <v>145.17636149693701</v>
+      <c r="B22">
+        <v>81.886338155512306</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>44039</v>
       </c>
-      <c r="B23" s="4">
-        <v>147.336957223686</v>
+      <c r="B23">
+        <v>85.741246297634405</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>44040</v>
       </c>
-      <c r="B24" s="4">
-        <v>149.52784785575901</v>
+      <c r="B24">
+        <v>89.706484881501893</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>44041</v>
       </c>
-      <c r="B25" s="4">
-        <v>151.74526705276199</v>
+      <c r="B25">
+        <v>93.772571104117304</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>44042</v>
       </c>
-      <c r="B26" s="4">
-        <v>153.95559122545401</v>
+      <c r="B26">
+        <v>97.936369640546005</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>44043</v>
       </c>
-      <c r="B27" s="4">
-        <v>156.11225995824302</v>
+      <c r="B27">
+        <v>102.181603944983</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>44044</v>
       </c>
-      <c r="B28" s="4">
-        <v>158.16678510124999</v>
+      <c r="B28">
+        <v>106.495673490279</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>44045</v>
       </c>
-      <c r="B29" s="4">
-        <v>160.075228734939</v>
+      <c r="B29">
+        <v>110.868594666013</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>44046</v>
       </c>
-      <c r="B30" s="4">
-        <v>161.80137820011601</v>
+      <c r="B30">
+        <v>115.28331207668801</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>44047</v>
       </c>
-      <c r="B31" s="4">
-        <v>163.31768215316799</v>
+      <c r="B31">
+        <v>119.734106281596</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>44048</v>
       </c>
-      <c r="B32" s="4">
-        <v>164.60173517520897</v>
+      <c r="B32">
+        <v>124.209917039887</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>44049</v>
       </c>
-      <c r="B33" s="4">
-        <v>165.62393645117501</v>
+      <c r="B33">
+        <v>128.707091740637</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>44050</v>
       </c>
-      <c r="B34" s="4">
-        <v>166.35503181979999</v>
+      <c r="B34">
+        <v>133.20864701137901</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>44051</v>
       </c>
-      <c r="B35" s="4">
-        <v>166.77217747089699</v>
+      <c r="B35">
+        <v>137.70037886451399</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>44052</v>
       </c>
-      <c r="B36" s="4">
-        <v>166.86017358048701</v>
+      <c r="B36">
+        <v>142.171392862018</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>44053</v>
       </c>
-      <c r="B37" s="4">
-        <v>166.610846792068</v>
+      <c r="B37">
+        <v>146.60295358974199</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>44054</v>
       </c>
-      <c r="B38" s="4">
-        <v>166.021345054379</v>
+      <c r="B38">
+        <v>150.98514992168799</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>44055</v>
       </c>
-      <c r="B39" s="4">
-        <v>165.091965604732</v>
+      <c r="B39">
+        <v>155.30125016769699</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>44056</v>
       </c>
-      <c r="B40" s="4">
-        <v>163.82397467232099</v>
+      <c r="B40">
+        <v>159.53827975189299</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>44057</v>
       </c>
-      <c r="B41" s="4">
-        <v>162.211266862456</v>
+      <c r="B41">
+        <v>163.66979270129499</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>44058</v>
       </c>
-      <c r="B42" s="4">
-        <v>160.18384688759198</v>
+      <c r="B42">
+        <v>167.66815762455599</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>44059</v>
       </c>
-      <c r="B43" s="4">
-        <v>157.66669611671799</v>
+      <c r="B43">
+        <v>171.506324328885</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>44060</v>
       </c>
-      <c r="B44" s="4">
-        <v>154.62394715271898</v>
+      <c r="B44">
+        <v>175.14869219981401</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44061</v>
       </c>
-      <c r="B45" s="4">
-        <v>151.04999582807301</v>
+      <c r="B45">
+        <v>178.562305948496</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44062</v>
       </c>
-      <c r="B46" s="4">
-        <v>146.96202275823501</v>
+      <c r="B46">
+        <v>181.70690747180501</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>44063</v>
       </c>
-      <c r="B47" s="4">
-        <v>142.39447558590601</v>
+      <c r="B47">
+        <v>184.54136842525301</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>44064</v>
       </c>
-      <c r="B48" s="4">
-        <v>137.39564177081502</v>
+      <c r="B48">
+        <v>187.01623021683</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>44065</v>
       </c>
-      <c r="B49" s="4">
-        <v>132.02629412744699</v>
+      <c r="B49">
+        <v>189.081474974776</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>44066</v>
       </c>
-      <c r="B50" s="4">
-        <v>126.360139141863</v>
+      <c r="B50">
+        <v>190.69026969899201</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>44067</v>
       </c>
-      <c r="B51" s="4">
-        <v>120.473976768925</v>
+      <c r="B51">
+        <v>191.79901214347299</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>44068</v>
       </c>
-      <c r="B52" s="4">
-        <v>114.433490162883</v>
+      <c r="B52">
+        <v>192.37348487288401</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>44069</v>
       </c>
-      <c r="B53" s="4">
-        <v>108.35201299616</v>
+      <c r="B53">
+        <v>192.39269095241099</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>44070</v>
       </c>
-      <c r="B54" s="4">
-        <v>102.388126311839</v>
+      <c r="B54">
+        <v>191.852376018645</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>44071</v>
       </c>
-      <c r="B55" s="4">
-        <v>96.7223787350771</v>
+      <c r="B55">
+        <v>190.77297599621701</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>44072</v>
       </c>
-      <c r="B56" s="4">
-        <v>91.529263783141005</v>
+      <c r="B56">
+        <v>189.19852088687</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>44073</v>
       </c>
-      <c r="B57" s="4">
-        <v>86.946051147240695</v>
+      <c r="B57">
+        <v>187.191447139318</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>44074</v>
       </c>
-      <c r="B58" s="4">
-        <v>83.041093239215698</v>
+      <c r="B58">
+        <v>184.82791847336</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>44075</v>
       </c>
-      <c r="B59" s="4">
-        <v>79.784021752036011</v>
+      <c r="B59">
+        <v>182.17261237700399</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>44076</v>
       </c>
-      <c r="B60" s="4">
-        <v>77.018147478310496</v>
+      <c r="B60">
+        <v>179.26285716714199</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>44077</v>
       </c>
-      <c r="B61" s="4">
-        <v>74.49517956168809</v>
+      <c r="B61">
+        <v>176.088205936137</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>44078</v>
       </c>
-      <c r="B62" s="4">
-        <v>72.122559468328404</v>
+      <c r="B62">
+        <v>172.666492535625</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>44079</v>
       </c>
-      <c r="B63" s="4">
-        <v>69.898280415162802</v>
+      <c r="B63">
+        <v>169.021067600934</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>44080</v>
       </c>
-      <c r="B64" s="4">
-        <v>67.849061956753104</v>
+      <c r="B64">
+        <v>165.17887769131701</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>44081</v>
       </c>
-      <c r="B65" s="4">
-        <v>66.015170797655898</v>
+      <c r="B65">
+        <v>161.161831140271</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>44082</v>
       </c>
-      <c r="B66" s="4">
-        <v>64.438510930124295</v>
+      <c r="B66">
+        <v>156.99554597138101</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>44083</v>
       </c>
-      <c r="B67" s="4">
-        <v>63.153454198439</v>
+      <c r="B67">
+        <v>152.703896825106</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>44084</v>
       </c>
-      <c r="B68" s="4">
-        <v>62.180246465592397</v>
+      <c r="B68">
+        <v>148.31756387983799</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>44085</v>
       </c>
-      <c r="B69" s="4">
-        <v>61.521004555916598</v>
+      <c r="B69">
+        <v>143.873234281149</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>44086</v>
       </c>
-      <c r="B70" s="4">
-        <v>61.151575005833699</v>
+      <c r="B70">
+        <v>139.39546606209501</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>44087</v>
       </c>
-      <c r="B71" s="4">
-        <v>60.971595940280302</v>
+      <c r="B71">
+        <v>134.91301463192099</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>44088</v>
       </c>
-      <c r="B72" s="4">
-        <v>60.895115461567499</v>
+      <c r="B72">
+        <v>130.44839966688801</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>44089</v>
       </c>
-      <c r="B73" s="4">
-        <v>60.8801470167313</v>
+      <c r="B73">
+        <v>126.029300403221</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>44090</v>
       </c>
-      <c r="B74" s="4">
-        <v>60.906170283837803</v>
+      <c r="B74">
+        <v>121.680166301472</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>44091</v>
       </c>
-      <c r="B75" s="4">
-        <v>60.9630239183047</v>
+      <c r="B75">
+        <v>117.431150554562</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>44092</v>
       </c>
-      <c r="B76" s="4">
-        <v>61.045835539468001</v>
+      <c r="B76">
+        <v>113.31480309099</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>44093</v>
       </c>
-      <c r="B77" s="4">
-        <v>61.155778372848395</v>
+      <c r="B77">
+        <v>109.350900278086</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>44094</v>
       </c>
-      <c r="B78" s="4">
-        <v>61.306691319565402</v>
+      <c r="B78">
+        <v>105.56249022782499</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>44095</v>
       </c>
-      <c r="B79" s="4">
-        <v>61.537852981253899</v>
+      <c r="B79">
+        <v>101.964727286469</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>44096</v>
       </c>
-      <c r="B80" s="4">
-        <v>61.943786334800699</v>
+      <c r="B80">
+        <v>98.577853016692401</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>44097</v>
       </c>
-      <c r="B81" s="4">
-        <v>62.650444915515301</v>
+      <c r="B81">
+        <v>95.4153565288767</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>44098</v>
       </c>
-      <c r="B82" s="4">
-        <v>63.692940133711602</v>
+      <c r="B82">
+        <v>92.494417381308395</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>44099</v>
       </c>
-      <c r="B83" s="4">
-        <v>65.0684254051762</v>
+      <c r="B83">
+        <v>89.829055286861603</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>44100</v>
       </c>
-      <c r="B84" s="4">
-        <v>66.748798950344295</v>
+      <c r="B84">
+        <v>87.421461075371298</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>44101</v>
       </c>
-      <c r="B85" s="4">
-        <v>68.687903084478194</v>
+      <c r="B85">
+        <v>85.276895875685994</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>44102</v>
       </c>
-      <c r="B86" s="4">
-        <v>70.830744919099303</v>
+      <c r="B86">
+        <v>83.392593445183394</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>44103</v>
       </c>
-      <c r="B87" s="4">
-        <v>73.124802590958893</v>
+      <c r="B87">
+        <v>81.769472910287703</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>44104</v>
       </c>
-      <c r="B88" s="4">
-        <v>75.533629813219804</v>
+      <c r="B88">
+        <v>80.400790905538599</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>44105</v>
       </c>
-      <c r="B89" s="4">
-        <v>78.0533280774806</v>
+      <c r="B89">
+        <v>79.2806616923165</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>44106</v>
       </c>
-      <c r="B90" s="4">
-        <v>80.793021788054787</v>
+      <c r="B90">
+        <v>78.406038824220502</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>44107</v>
       </c>
-      <c r="B91" s="4">
-        <v>84.066001309144596</v>
+      <c r="B91">
+        <v>77.791287636577295</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>44108</v>
       </c>
-      <c r="B92" s="4">
-        <v>88.052219466095707</v>
+      <c r="B92">
+        <v>77.439199785969393</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>44109</v>
       </c>
-      <c r="B93" s="4">
-        <v>92.759829221033598</v>
+      <c r="B93">
+        <v>77.333082534393597</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>44110</v>
       </c>
-      <c r="B94" s="4">
-        <v>98.071271492417097</v>
+      <c r="B94">
+        <v>77.439764676960095</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>44111</v>
       </c>
-      <c r="B95" s="4">
-        <v>103.78885253439</v>
+      <c r="B95">
+        <v>77.717521962395296</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>44112</v>
       </c>
-      <c r="B96" s="4">
-        <v>109.679117614953</v>
+      <c r="B96">
+        <v>78.1176810180648</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>44113</v>
       </c>
-      <c r="B97" s="4">
-        <v>115.512863952713</v>
+      <c r="B97">
+        <v>78.591867124138801</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>44114</v>
       </c>
-      <c r="B98" s="4">
-        <v>121.09775384343099</v>
+      <c r="B98">
+        <v>79.100714018562797</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>44115</v>
       </c>
-      <c r="B99" s="4">
-        <v>126.302066244017</v>
+      <c r="B99">
+        <v>79.607777141894005</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>44116</v>
       </c>
-      <c r="B100" s="4">
-        <v>131.054746139771</v>
+      <c r="B100">
+        <v>80.086816922715101</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>44117</v>
       </c>
-      <c r="B101" s="4">
-        <v>135.283130036431</v>
+      <c r="B101">
+        <v>80.512440197244501</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>44118</v>
       </c>
-      <c r="B102" s="4">
-        <v>138.925555683829</v>
+      <c r="B102">
+        <v>80.869776376493704</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>44119</v>
       </c>
-      <c r="B103" s="4">
-        <v>141.939506805039</v>
+      <c r="B103">
+        <v>81.145343190957107</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>44120</v>
       </c>
-      <c r="B104" s="4">
-        <v>144.29927705225302</v>
+      <c r="B104">
+        <v>81.329248339341007</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>44121</v>
       </c>
-      <c r="B105" s="4">
-        <v>145.99546361564498</v>
+      <c r="B105">
+        <v>81.423240322099304</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>44122</v>
       </c>
-      <c r="B106" s="4">
-        <v>147.036313205374</v>
+      <c r="B106">
+        <v>81.426848061938998</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>44123</v>
       </c>
-      <c r="B107" s="4">
-        <v>147.450645958309</v>
+      <c r="B107">
+        <v>81.344800649010693</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>44124</v>
       </c>
-      <c r="B108" s="4">
-        <v>147.29191343522601</v>
+      <c r="B108">
+        <v>81.176606029784693</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>44125</v>
       </c>
-      <c r="B109" s="4">
-        <v>146.64250434452001</v>
+      <c r="B109">
+        <v>80.926772946020904</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>44126</v>
       </c>
-      <c r="B110" s="4">
-        <v>145.574743533587</v>
+      <c r="B110">
+        <v>80.597759406546899</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>44127</v>
       </c>
-      <c r="B111" s="4">
-        <v>144.106461553613</v>
+      <c r="B111">
+        <v>80.190953058711003</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>44128</v>
       </c>
-      <c r="B112" s="4">
-        <v>142.249569055781</v>
+      <c r="B112">
+        <v>79.714241695673905</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>44129</v>
       </c>
-      <c r="B113" s="4">
-        <v>140.01710956097901</v>
+      <c r="B113">
+        <v>79.171850151478907</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>44130</v>
       </c>
-      <c r="B114" s="4">
-        <v>137.42479404096599</v>
+      <c r="B114">
+        <v>78.569976926359402</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>44131</v>
       </c>
-      <c r="B115" s="4">
-        <v>134.49173976549</v>
+      <c r="B115">
+        <v>77.9109711154384</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>44132</v>
       </c>
-      <c r="B116" s="4">
-        <v>131.239670387058</v>
+      <c r="B116">
+        <v>77.1992366319556</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>44133</v>
       </c>
-      <c r="B117" s="4">
-        <v>127.68962880721701</v>
+      <c r="B117">
+        <v>76.4385048010503</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>44134</v>
       </c>
-      <c r="B118" s="4">
-        <v>123.85501882859799</v>
+      <c r="B118">
+        <v>75.631501043978901</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>44135</v>
       </c>
-      <c r="B119" s="4">
-        <v>119.737506020808</v>
+      <c r="B119">
+        <v>74.783437336286397</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>44136</v>
       </c>
-      <c r="B120" s="4">
-        <v>115.353935734006</v>
+      <c r="B120">
+        <v>73.8982338678601</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>44137</v>
       </c>
-      <c r="B121" s="4">
-        <v>110.737979156542</v>
+      <c r="B121">
+        <v>72.980250828987707</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>44138</v>
       </c>
-      <c r="B122" s="4">
-        <v>105.93697675831801</v>
+      <c r="B122">
+        <v>72.033454211907596</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>44139</v>
       </c>
-      <c r="B123" s="4">
-        <v>101.010958590546</v>
+      <c r="B123">
+        <v>71.061926120310204</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>44140</v>
       </c>
-      <c r="B124" s="4">
-        <v>96.028683998643501</v>
+      <c r="B124">
+        <v>70.070197774643702</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>44141</v>
       </c>
-      <c r="B125" s="4">
-        <v>91.059246143506201</v>
+      <c r="B125">
+        <v>69.062794713743301</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>44142</v>
       </c>
-      <c r="B126" s="4">
-        <v>86.157571981583601</v>
+      <c r="B126">
+        <v>68.043251592509307</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>44143</v>
       </c>
-      <c r="B127" s="4">
-        <v>81.341975028208196</v>
+      <c r="B127">
+        <v>67.015674310331306</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>44144</v>
       </c>
-      <c r="B128" s="4">
-        <v>76.56156432336401</v>
+      <c r="B128">
+        <v>65.983226064657799</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>44145</v>
       </c>
-      <c r="B129" s="4">
-        <v>71.703484682887904</v>
+      <c r="B129">
+        <v>64.9507824803472</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>44146</v>
       </c>
-      <c r="B130" s="4">
-        <v>66.767659203384397</v>
+      <c r="B130">
+        <v>63.921686508318899</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>44147</v>
       </c>
-      <c r="B131" s="4">
-        <v>61.804381877621601</v>
+      <c r="B131">
+        <v>62.899398990521703</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>44148</v>
       </c>
-      <c r="B132" s="4">
-        <v>56.876297553010097</v>
+      <c r="B132">
+        <v>61.887852770626402</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>44149</v>
       </c>
-      <c r="B133" s="4">
-        <v>52.055273918884204</v>
+      <c r="B133">
+        <v>60.887734333250201</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>44150</v>
       </c>
-      <c r="B134" s="4">
-        <v>47.415509554320998</v>
+      <c r="B134">
+        <v>59.900754359709502</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>44151</v>
       </c>
-      <c r="B135" s="4">
-        <v>43.021584999501201</v>
+      <c r="B135">
+        <v>58.926813905517903</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>44152</v>
       </c>
-      <c r="B136" s="4">
-        <v>38.910348302118301</v>
+      <c r="B136">
+        <v>57.967665210346901</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>44153</v>
       </c>
-      <c r="B137" s="4">
-        <v>35.065862330631802</v>
+      <c r="B137">
+        <v>57.023040662544403</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>44154</v>
       </c>
-      <c r="B138" s="4">
-        <v>31.3882079666623</v>
+      <c r="B138">
+        <v>56.092087132535198</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>44155</v>
       </c>
-      <c r="B139" s="4">
-        <v>27.760552035138499</v>
+      <c r="B139">
+        <v>55.174620179127501</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>44156</v>
       </c>
-      <c r="B140" s="4">
-        <v>24.159590811270899</v>
+      <c r="B140">
+        <v>54.267920343538698</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>44157</v>
       </c>
-      <c r="B141" s="4">
-        <v>20.5684694372944</v>
+      <c r="B141">
+        <v>53.3702390892308</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>44158</v>
       </c>
-      <c r="B142" s="4">
-        <v>16.966944840304699</v>
+      <c r="B142">
+        <v>52.4791750238048</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>44159</v>
       </c>
-      <c r="B143" s="4">
-        <v>13.3332933726735</v>
+      <c r="B143">
+        <v>51.593365418624799</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>44160</v>
       </c>
-      <c r="B144" s="4">
-        <v>9.647700907455949</v>
+      <c r="B144">
+        <v>50.711303901082502</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>44161</v>
       </c>
-      <c r="B145" s="4">
-        <v>5.8973626292063397</v>
+      <c r="B145">
+        <v>49.8315349135191</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>44162</v>
       </c>
-      <c r="B146" s="4">
-        <v>2.08337928740435</v>
+      <c r="B146">
+        <v>48.953344802749697</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147" s="1">
+        <v>44163</v>
+      </c>
+      <c r="B147">
+        <v>48.076330449351801</v>
       </c>
     </row>
   </sheetData>
